--- a/biology/Zoologie/Canariomys/Canariomys.xlsx
+++ b/biology/Zoologie/Canariomys/Canariomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le genre de rongeurs canariomys de la sous-famille des Murinés comprend deux espèces endémiques des îles Canaries, toutes deux éteintes :
 Ces rats géants peuvent atteindre un poids d'environ 1 kg, ce qui les rend extrêmement important par rapport à leurs homologues européens. Les deux espèces ont un régime alimentaire similaire, herbivore. On croit que, en général, le genre de Tenerife a vécu dans un environnement boisé lié à la laurisilva et avait l'escalade des compétences, alors que les espèces de Gran Canaria vivaient dans des environnements plus ouverts et était plus liée à creuser des terriers.
@@ -513,7 +525,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Crusafont Pairo &amp; Petter : Un Murine geant fossile des Iles Canaries Canariomys bravoi gen. nov., sp. nov. (Rongeurs, Murides). Mammalia 28 pp 607–612.</t>
         </is>
